--- a/Membership/Create Installments/Main.rvl.xlsx
+++ b/Membership/Create Installments/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="204">
   <si>
     <t>Flow</t>
   </si>
@@ -576,6 +576,57 @@
   </si>
   <si>
     <t>else</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\MembershipData.xls</t>
+  </si>
+  <si>
+    <t>***Test creates all sales non-inventory products in ProductSalesData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the product to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the product is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the product using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>***Test creates all Installments in MembershipData spreadsheet.</t>
+  </si>
+  <si>
+    <t>****Test first searches for the installment to see if it already exists.</t>
+  </si>
+  <si>
+    <t>*****If it already exists, the installment is not created.</t>
+  </si>
+  <si>
+    <t>******If it doesn't exist, the test creates the installment using the data in the spreadsheet.</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
+  </si>
+  <si>
+    <t>UX_Grid</t>
+  </si>
+  <si>
+    <t>Installment does not exist. Create Installment.</t>
+  </si>
+  <si>
+    <t>Installment:</t>
+  </si>
+  <si>
+    <t>Checking that installment was created.</t>
+  </si>
+  <si>
+    <t>Validate that the installment was created.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +647,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2626">
+  <borders count="2635">
     <border>
       <left/>
       <right/>
@@ -3229,11 +3280,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2626">
+  <cellXfs count="2635">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -5860,6 +5920,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2623" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2624" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2625" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2626" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2627" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2628" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2629" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2630" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2631" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2632" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2633" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2634" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5869,7 +5938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -5958,7 +6027,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
@@ -6048,570 +6117,555 @@
       <c r="A13" s="2611"/>
     </row>
     <row r="14">
-      <c r="A14" s="2610" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="2630"/>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2609"/>
+      <c r="A15" s="2629"/>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2628"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2627"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2632"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2631"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2608"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2607" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2606" t="s">
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2626"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2610" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2605" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2604"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2603"/>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2602"/>
+      <c r="A22" s="2609"/>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2601"/>
-      <c r="B23" t="s">
+      <c r="A23" s="2608"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2607" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2606" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2605" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2604"/>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2600"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2599"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2598"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2597"/>
-      <c r="B27" t="s">
-        <v>11</v>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2596"/>
+      <c r="A28" s="2603"/>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2595" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29" s="2602"/>
       <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2601"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2600"/>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2599"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2598"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2597"/>
+      <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2594"/>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2593"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2592" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2591"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2590" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2589"/>
+      <c r="A35" s="2596"/>
       <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2588"/>
+      <c r="A36" s="2595" t="s">
+        <v>55</v>
+      </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2594"/>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2593"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2592" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2591"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2590" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2634"/>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
         <v>27</v>
       </c>
-      <c r="F36" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2587"/>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2586"/>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2585"/>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2584"/>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2583"/>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2582"/>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" t="s">
-        <v>69</v>
-      </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2581"/>
+      <c r="A43" s="2589"/>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2580"/>
+      <c r="A44" s="2588"/>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" t="s">
         <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2579"/>
+      <c r="A45" s="2587"/>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2578"/>
+      <c r="A46" s="2586"/>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2577"/>
+      <c r="A47" s="2585"/>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2576"/>
+      <c r="A48" s="2584"/>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2575"/>
+      <c r="A49" s="2583"/>
       <c r="B49" t="s">
         <v>3</v>
       </c>
@@ -6619,231 +6673,348 @@
         <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2574"/>
+      <c r="A50" s="2582"/>
       <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2581"/>
+      <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>29</v>
       </c>
-      <c r="D50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2573"/>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>110</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2572"/>
+      <c r="A52" s="2580"/>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
         <v>69</v>
       </c>
       <c r="G52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2579"/>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2578"/>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2577"/>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2576"/>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2575"/>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2574"/>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2571"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2570" t="s">
+    <row r="59">
+      <c r="A59" s="2571"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2570" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2569" t="s">
+    <row r="61">
+      <c r="A61" s="2569" t="s">
         <v>72</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D61" t="s">
         <v>7</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G61" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2568"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2567"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2566"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2565"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="65"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
-      <c r="H60" s="72"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="73"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="80"/>
-    </row>
     <row r="62">
-      <c r="A62" s="81"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="88"/>
+      <c r="A62" s="2568"/>
     </row>
     <row r="63">
-      <c r="A63" s="89"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="96"/>
+      <c r="A63" s="2567"/>
     </row>
     <row r="64">
-      <c r="A64" s="97"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="104"/>
+      <c r="A64" s="2566"/>
     </row>
     <row r="65">
-      <c r="A65" s="105"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="110"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="112"/>
+      <c r="A65" s="2565"/>
     </row>
     <row r="66">
-      <c r="A66" s="113"/>
-      <c r="B66" s="114"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="116"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="120"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
     </row>
     <row r="67">
-      <c r="A67" s="121"/>
-      <c r="B67" s="122"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="128"/>
+      <c r="A67" s="73"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="80"/>
     </row>
     <row r="68">
-      <c r="A68" s="129"/>
-      <c r="B68" s="130"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="132"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="134"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="136"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="88"/>
     </row>
     <row r="69">
-      <c r="A69" s="137"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="143"/>
-      <c r="H69" s="144"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="96"/>
     </row>
     <row r="70">
-      <c r="A70" s="145"/>
-      <c r="B70" s="146"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="150"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="152"/>
+      <c r="A70" s="97"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="100"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="104"/>
     </row>
     <row r="71">
-      <c r="A71" s="153"/>
-      <c r="B71" s="154"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="157"/>
-      <c r="F71" s="158"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="160"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="112"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="113"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="118"/>
+      <c r="G72" s="119"/>
+      <c r="H72" s="120"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="121"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="128"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="133"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="135"/>
+      <c r="H74" s="136"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="137"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="143"/>
+      <c r="H75" s="144"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="145"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="147"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="149"/>
+      <c r="F76" s="150"/>
+      <c r="G76" s="151"/>
+      <c r="H76" s="152"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="153"/>
+      <c r="B77" s="154"/>
+      <c r="C77" s="155"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="157"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="160"/>
     </row>
   </sheetData>
 </worksheet>
